--- a/Annotations/Old/OliverTwist.xlsx
+++ b/Annotations/Old/OliverTwist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="oliver" sheetId="1" r:id="rId1"/>
@@ -1838,15 +1838,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F307" sqref="F307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="42.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="47.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="54.109375" style="2" customWidth="1"/>
@@ -1908,7 +1908,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.81825920097722038</v>
+        <v>0.28659679323041232</v>
       </c>
       <c r="B2" s="2">
         <v>21</v>
@@ -1932,7 +1932,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86831264399753683</v>
+        <v>0.31096090084436701</v>
       </c>
       <c r="B3" s="2">
         <v>113</v>
@@ -1956,7 +1956,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38576218186033584</v>
+        <v>0.99322307642515906</v>
       </c>
       <c r="B4" s="2">
         <v>114</v>
@@ -1980,7 +1980,7 @@
     <row r="5" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0972656875948292E-3</v>
+        <v>0.508765401294064</v>
       </c>
       <c r="B5" s="2">
         <v>56</v>
@@ -2004,7 +2004,7 @@
     <row r="6" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84703000134472528</v>
+        <v>0.46627822143815034</v>
       </c>
       <c r="B6" s="2">
         <v>141</v>
@@ -2028,7 +2028,7 @@
     <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7653427224345744E-2</v>
+        <v>0.11666361629620114</v>
       </c>
       <c r="B7" s="2">
         <v>203</v>
@@ -2052,7 +2052,7 @@
     <row r="8" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0046746006358971E-2</v>
+        <v>0.49070750581993683</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -2076,7 +2076,7 @@
     <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65143063151768266</v>
+        <v>0.65109582895136919</v>
       </c>
       <c r="B9" s="2">
         <v>154</v>
@@ -2103,7 +2103,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14198790566548047</v>
+        <v>0.98392884735202413</v>
       </c>
       <c r="B10" s="2">
         <v>228</v>
@@ -2124,7 +2124,7 @@
     <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25327751213234628</v>
+        <v>0.76759419979950616</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -2145,7 +2145,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70500366140965809</v>
+        <v>1.7239578860069993E-2</v>
       </c>
       <c r="B12" s="2">
         <v>91</v>
@@ -2169,7 +2169,7 @@
     <row r="13" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72491713526338664</v>
+        <v>0.52434111439252817</v>
       </c>
       <c r="B13" s="2">
         <v>196</v>
@@ -2190,7 +2190,7 @@
     <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94379600039514522</v>
+        <v>0.82894492895675509</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
@@ -2214,7 +2214,7 @@
     <row r="15" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59752664806168876</v>
+        <v>0.81031069449139148</v>
       </c>
       <c r="B15" s="2">
         <v>39</v>
@@ -2238,7 +2238,7 @@
     <row r="16" spans="1:16" ht="216" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64902331794433632</v>
+        <v>0.6949104003811627</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1739117032805263</v>
+        <v>0.33533039784792018</v>
       </c>
       <c r="B17" s="2">
         <v>65</v>
@@ -2283,7 +2283,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82478091711596779</v>
+        <v>0.75980780484923838</v>
       </c>
       <c r="B18" s="2">
         <v>123</v>
@@ -2304,7 +2304,7 @@
     <row r="19" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7819658847049675E-2</v>
+        <v>0.99657069686666411</v>
       </c>
       <c r="B19" s="2">
         <v>41</v>
@@ -2328,7 +2328,7 @@
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7662099129893765E-3</v>
+        <v>0.93801209847354783</v>
       </c>
       <c r="B20" s="2">
         <v>87</v>
@@ -2355,7 +2355,7 @@
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5208889593916592E-2</v>
+        <v>0.5001509459128276</v>
       </c>
       <c r="B21" s="2">
         <v>213</v>
@@ -2379,7 +2379,7 @@
     <row r="22" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66731936075200138</v>
+        <v>0.37425682990511011</v>
       </c>
       <c r="B22" s="2">
         <v>201</v>
@@ -2400,7 +2400,7 @@
     <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64795891596565935</v>
+        <v>0.45985352950628489</v>
       </c>
       <c r="B23" s="2">
         <v>241</v>
@@ -2424,7 +2424,7 @@
     <row r="24" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63016821362974962</v>
+        <v>7.6036828515865018E-2</v>
       </c>
       <c r="B24" s="2">
         <v>156</v>
@@ -2451,7 +2451,7 @@
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37364353943772566</v>
+        <v>0.67936818585741388</v>
       </c>
       <c r="B25" s="2">
         <v>220</v>
@@ -2475,7 +2475,7 @@
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61819738379941624</v>
+        <v>0.78780323562510035</v>
       </c>
       <c r="B26" s="2">
         <v>88</v>
@@ -2502,7 +2502,7 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1016355909437433</v>
+        <v>0.32103273405575827</v>
       </c>
       <c r="B27" s="2">
         <v>295</v>
@@ -2529,7 +2529,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94389317181818477</v>
+        <v>0.58423612748610343</v>
       </c>
       <c r="B28" s="2">
         <v>144</v>
@@ -2556,7 +2556,7 @@
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14518752626001841</v>
+        <v>0.48155182337287039</v>
       </c>
       <c r="B29" s="2">
         <v>58</v>
@@ -2577,7 +2577,7 @@
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72499977276580485</v>
+        <v>0.18682873475278383</v>
       </c>
       <c r="B30" s="2">
         <v>43</v>
@@ -2601,7 +2601,7 @@
     <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88702445250857465</v>
+        <v>0.20881511549392862</v>
       </c>
       <c r="B31" s="2">
         <v>51</v>
@@ -2625,7 +2625,7 @@
     <row r="32" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8537300917247506E-2</v>
+        <v>0.74105099574687772</v>
       </c>
       <c r="B32" s="2">
         <v>277</v>
@@ -2646,7 +2646,7 @@
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66100422818526849</v>
+        <v>0.76179690317822113</v>
       </c>
       <c r="B33" s="2">
         <v>96</v>
@@ -2667,7 +2667,7 @@
     <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23662356801638762</v>
+        <v>0.16356675449362978</v>
       </c>
       <c r="B34" s="2">
         <v>139</v>
@@ -2691,7 +2691,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66626867330604256</v>
+        <v>0.21358708111953995</v>
       </c>
       <c r="B35" s="2">
         <v>33</v>
@@ -2715,7 +2715,7 @@
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43511261690462755</v>
+        <v>0.50828676128976835</v>
       </c>
       <c r="B36" s="2">
         <v>29</v>
@@ -2742,7 +2742,7 @@
     <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15030533018942327</v>
+        <v>0.451195044706583</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
@@ -2763,7 +2763,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79014943469057786</v>
+        <v>0.67394679068398811</v>
       </c>
       <c r="B38" s="2">
         <v>222</v>
@@ -2784,7 +2784,7 @@
     <row r="39" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84786810363124565</v>
+        <v>0.7052759565756066</v>
       </c>
       <c r="B39" s="2">
         <v>3</v>
@@ -2808,7 +2808,7 @@
     <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88731901466954488</v>
+        <v>0.25172141291254679</v>
       </c>
       <c r="B40" s="2">
         <v>134</v>
@@ -2835,7 +2835,7 @@
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7358023969366746</v>
+        <v>0.59268357003030625</v>
       </c>
       <c r="B41" s="2">
         <v>106</v>
@@ -2859,7 +2859,7 @@
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93866141739246678</v>
+        <v>0.9703841851602274</v>
       </c>
       <c r="B42" s="2">
         <v>214</v>
@@ -2880,7 +2880,7 @@
     <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25138207375728727</v>
+        <v>0.95054062268903461</v>
       </c>
       <c r="B43" s="2">
         <v>287</v>
@@ -2904,7 +2904,7 @@
     <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63441492820173684</v>
+        <v>0.73907182255613357</v>
       </c>
       <c r="B44" s="2">
         <v>198</v>
@@ -2925,7 +2925,7 @@
     <row r="45" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76183794773318447</v>
+        <v>0.31367528311451287</v>
       </c>
       <c r="B45" s="2">
         <v>48</v>
@@ -2949,7 +2949,7 @@
     <row r="46" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3517629907834271</v>
+        <v>0.20860742359887552</v>
       </c>
       <c r="B46" s="2">
         <v>274</v>
@@ -2970,7 +2970,7 @@
     <row r="47" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26302923813990919</v>
+        <v>0.35486619700408994</v>
       </c>
       <c r="B47" s="2">
         <v>200</v>
@@ -2991,7 +2991,7 @@
     <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22955840516182058</v>
+        <v>0.94298058101945958</v>
       </c>
       <c r="B48" s="2">
         <v>164</v>
@@ -3015,7 +3015,7 @@
     <row r="49" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12250393075012178</v>
+        <v>0.47932062629931005</v>
       </c>
       <c r="B49" s="2">
         <v>55</v>
@@ -3036,7 +3036,7 @@
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15938634776453997</v>
+        <v>0.89801121596483791</v>
       </c>
       <c r="B50" s="2">
         <v>292</v>
@@ -3060,7 +3060,7 @@
     <row r="51" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44130014389525474</v>
+        <v>0.44966848130017834</v>
       </c>
       <c r="B51" s="2">
         <v>250</v>
@@ -3084,7 +3084,7 @@
     <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65663222635957619</v>
+        <v>0.23226643622632603</v>
       </c>
       <c r="B52" s="2">
         <v>128</v>
@@ -3108,7 +3108,7 @@
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19779949693746302</v>
+        <v>0.38340784015244767</v>
       </c>
       <c r="B53" s="2">
         <v>298</v>
@@ -3129,7 +3129,7 @@
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63918069244592723</v>
+        <v>0.58766678754025903</v>
       </c>
       <c r="B54" s="2">
         <v>26</v>
@@ -3156,7 +3156,7 @@
     <row r="55" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78454421047727707</v>
+        <v>0.12247944690208357</v>
       </c>
       <c r="B55" s="2">
         <v>243</v>
@@ -3180,7 +3180,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68888555857083944</v>
+        <v>0.50398726032405283</v>
       </c>
       <c r="B56" s="2">
         <v>233</v>
@@ -3207,7 +3207,7 @@
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74674686552029046</v>
+        <v>0.33229022527850993</v>
       </c>
       <c r="B57" s="2">
         <v>112</v>
@@ -3234,7 +3234,7 @@
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64772619521006658</v>
+        <v>0.82290841369733003</v>
       </c>
       <c r="B58" s="2">
         <v>59</v>
@@ -3255,7 +3255,7 @@
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66096717419379314</v>
+        <v>0.31406649299778255</v>
       </c>
       <c r="B59" s="2">
         <v>148</v>
@@ -3279,7 +3279,7 @@
     <row r="60" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9170391928450784</v>
+        <v>0.69532318135547122</v>
       </c>
       <c r="B60" s="2">
         <v>2</v>
@@ -3306,7 +3306,7 @@
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47717253673718818</v>
+        <v>0.80938685194340776</v>
       </c>
       <c r="B61" s="2">
         <v>288</v>
@@ -3327,7 +3327,7 @@
     <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49357682911379785</v>
+        <v>0.2939647157328138</v>
       </c>
       <c r="B62" s="2">
         <v>137</v>
@@ -3354,7 +3354,7 @@
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58136291043763166</v>
+        <v>3.6217886585316772E-2</v>
       </c>
       <c r="B63" s="2">
         <v>23</v>
@@ -3375,7 +3375,7 @@
     <row r="64" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80860969146737638</v>
+        <v>0.8602150727679917</v>
       </c>
       <c r="B64" s="2">
         <v>207</v>
@@ -3399,7 +3399,7 @@
     <row r="65" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71132104246494399</v>
+        <v>0.41042322331856351</v>
       </c>
       <c r="B65" s="2">
         <v>49</v>
@@ -3420,7 +3420,7 @@
     <row r="66" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.32542277693106081</v>
+        <v>0.38804411024137697</v>
       </c>
       <c r="B66" s="2">
         <v>70</v>
@@ -3447,7 +3447,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2639027966929661E-2</v>
+        <v>0.30256888000745619</v>
       </c>
       <c r="B67" s="2">
         <v>19</v>
@@ -3468,7 +3468,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20797722382315564</v>
+        <v>0.32188152467032005</v>
       </c>
       <c r="B68" s="2">
         <v>102</v>
@@ -3492,7 +3492,7 @@
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9919702997196982E-2</v>
+        <v>0.43569237561862462</v>
       </c>
       <c r="B69" s="2">
         <v>109</v>
@@ -3516,7 +3516,7 @@
     <row r="70" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33073515079091631</v>
+        <v>0.62470529903477423</v>
       </c>
       <c r="B70" s="2">
         <v>218</v>
@@ -3543,7 +3543,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38084035653693737</v>
+        <v>0.24057782420559726</v>
       </c>
       <c r="B71" s="2">
         <v>185</v>
@@ -3564,7 +3564,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18968207503891144</v>
+        <v>0.64257774810555812</v>
       </c>
       <c r="B72" s="2">
         <v>94</v>
@@ -3588,7 +3588,7 @@
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35481112063621389</v>
+        <v>0.81061279262032382</v>
       </c>
       <c r="B73" s="2">
         <v>236</v>
@@ -3612,7 +3612,7 @@
     <row r="74" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43199904637729847</v>
+        <v>0.84815097703091646</v>
       </c>
       <c r="B74" s="2">
         <v>264</v>
@@ -3636,7 +3636,7 @@
     <row r="75" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69105779237186249</v>
+        <v>0.87652809788520625</v>
       </c>
       <c r="B75" s="2">
         <v>206</v>
@@ -3657,7 +3657,7 @@
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34443239641902623</v>
+        <v>0.1328269079544887</v>
       </c>
       <c r="B76" s="2">
         <v>215</v>
@@ -3681,7 +3681,7 @@
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12260126532864313</v>
+        <v>0.99288444962534017</v>
       </c>
       <c r="B77" s="2">
         <v>131</v>
@@ -3708,7 +3708,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97621693495429995</v>
+        <v>0.63166119176696578</v>
       </c>
       <c r="B78" s="2">
         <v>108</v>
@@ -3735,7 +3735,7 @@
     <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16459788972192368</v>
+        <v>0.19492863187660769</v>
       </c>
       <c r="B79" s="2">
         <v>160</v>
@@ -3759,7 +3759,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85722070091915847</v>
+        <v>0.12969120027848335</v>
       </c>
       <c r="B80" s="2">
         <v>229</v>
@@ -3780,7 +3780,7 @@
     <row r="81" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95527251222554144</v>
+        <v>0.91581417377281038</v>
       </c>
       <c r="B81" s="2">
         <v>142</v>
@@ -3807,7 +3807,7 @@
     <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86410573543474056</v>
+        <v>0.63094212830310303</v>
       </c>
       <c r="B82" s="2">
         <v>73</v>
@@ -3831,7 +3831,7 @@
     <row r="83" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9515842121972512</v>
+        <v>2.761246686324581E-2</v>
       </c>
       <c r="B83" s="2">
         <v>64</v>
@@ -3852,7 +3852,7 @@
     <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43128157239623466</v>
+        <v>2.5571287165358947E-2</v>
       </c>
       <c r="B84" s="2">
         <v>173</v>
@@ -3876,7 +3876,7 @@
     <row r="85" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19382277127161851</v>
+        <v>0.95175109129275792</v>
       </c>
       <c r="B85" s="2">
         <v>140</v>
@@ -3906,7 +3906,7 @@
     <row r="86" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41934312398386642</v>
+        <v>0.73904734629924762</v>
       </c>
       <c r="B86" s="2">
         <v>186</v>
@@ -3930,7 +3930,7 @@
     <row r="87" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75975280615663732</v>
+        <v>0.7160545492681486</v>
       </c>
       <c r="B87" s="2">
         <v>78</v>
@@ -3954,7 +3954,7 @@
     <row r="88" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28248075293604225</v>
+        <v>8.4685102441336313E-2</v>
       </c>
       <c r="B88" s="2">
         <v>251</v>
@@ -3978,7 +3978,7 @@
     <row r="89" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8279236520964366E-2</v>
+        <v>8.8515804940707099E-2</v>
       </c>
       <c r="B89" s="2">
         <v>71</v>
@@ -4002,7 +4002,7 @@
     <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7612540664563303E-3</v>
+        <v>0.31903228822127927</v>
       </c>
       <c r="B90" s="2">
         <v>232</v>
@@ -4029,7 +4029,7 @@
     <row r="91" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86848381675972475</v>
+        <v>0.37781682636406189</v>
       </c>
       <c r="B91" s="2">
         <v>182</v>
@@ -4053,7 +4053,7 @@
     <row r="92" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99060522916221672</v>
+        <v>0.62654495016731471</v>
       </c>
       <c r="B92" s="2">
         <v>161</v>
@@ -4077,7 +4077,7 @@
     <row r="93" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69400872361244093</v>
+        <v>0.48984595708182954</v>
       </c>
       <c r="B93" s="2">
         <v>240</v>
@@ -4101,7 +4101,7 @@
     <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1502037995391401E-2</v>
+        <v>0.93929482930108066</v>
       </c>
       <c r="B94" s="2">
         <v>221</v>
@@ -4122,7 +4122,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30166830326095206</v>
+        <v>0.51717285980593997</v>
       </c>
       <c r="B95" s="2">
         <v>176</v>
@@ -4146,7 +4146,7 @@
     <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29692740649728355</v>
+        <v>0.38807145448310165</v>
       </c>
       <c r="B96" s="2">
         <v>172</v>
@@ -4167,7 +4167,7 @@
     <row r="97" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83573504327696979</v>
+        <v>0.52336984787909857</v>
       </c>
       <c r="B97" s="2">
         <v>97</v>
@@ -4191,7 +4191,7 @@
     <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22749983485751057</v>
+        <v>0.69565559610822381</v>
       </c>
       <c r="B98" s="2">
         <v>183</v>
@@ -4215,7 +4215,7 @@
     <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86465736844854457</v>
+        <v>2.0799989974369937E-2</v>
       </c>
       <c r="B99" s="2">
         <v>28</v>
@@ -4236,7 +4236,7 @@
     <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31754386331042994</v>
+        <v>0.93760830397810846</v>
       </c>
       <c r="B100" s="2">
         <v>75</v>
@@ -4263,7 +4263,7 @@
     <row r="101" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7507890036343674</v>
+        <v>0.65385567795964505</v>
       </c>
       <c r="B101" s="2">
         <v>83</v>
@@ -4290,7 +4290,7 @@
     <row r="102" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90121110626352063</v>
+        <v>0.13846518309931843</v>
       </c>
       <c r="B102" s="2">
         <v>282</v>
@@ -4314,7 +4314,7 @@
     <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34346318411248744</v>
+        <v>0.89296927710008411</v>
       </c>
       <c r="B103" s="2">
         <v>61</v>
@@ -4338,7 +4338,7 @@
     <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23917079266006003</v>
+        <v>0.29774613024461549</v>
       </c>
       <c r="B104" s="2">
         <v>267</v>
@@ -4362,7 +4362,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84682891100035185</v>
+        <v>0.85242538428905612</v>
       </c>
       <c r="B105" s="2">
         <v>167</v>
@@ -4389,7 +4389,7 @@
     <row r="106" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98485620341953295</v>
+        <v>0.11439183394252117</v>
       </c>
       <c r="B106" s="2">
         <v>265</v>
@@ -4416,7 +4416,7 @@
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4412145739310978E-3</v>
+        <v>0.4259476046349151</v>
       </c>
       <c r="B107" s="2">
         <v>80</v>
@@ -4440,7 +4440,7 @@
     <row r="108" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76360861341620534</v>
+        <v>0.87132164601333495</v>
       </c>
       <c r="B108" s="2">
         <v>284</v>
@@ -4467,7 +4467,7 @@
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0005018458701396E-2</v>
+        <v>0.72568472751721846</v>
       </c>
       <c r="B109" s="2">
         <v>103</v>
@@ -4491,7 +4491,7 @@
     <row r="110" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77696785189161599</v>
+        <v>0.89452058679910373</v>
       </c>
       <c r="B110" s="2">
         <v>38</v>
@@ -4515,7 +4515,7 @@
     <row r="111" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31781582233389671</v>
+        <v>0.13355626718518632</v>
       </c>
       <c r="B111" s="2">
         <v>193</v>
@@ -4536,7 +4536,7 @@
     <row r="112" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38144723639394773</v>
+        <v>0.47102077753423688</v>
       </c>
       <c r="B112" s="2">
         <v>118</v>
@@ -4563,7 +4563,7 @@
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61621204869464841</v>
+        <v>2.829575664523154E-2</v>
       </c>
       <c r="B113" s="2">
         <v>169</v>
@@ -4587,7 +4587,7 @@
     <row r="114" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17276814405383389</v>
+        <v>0.54666934040546367</v>
       </c>
       <c r="B114" s="2">
         <v>242</v>
@@ -4614,7 +4614,7 @@
     <row r="115" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90415134584885037</v>
+        <v>0.2815403916151723</v>
       </c>
       <c r="B115" s="2">
         <v>247</v>
@@ -4638,7 +4638,7 @@
     <row r="116" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76526345133259643</v>
+        <v>0.75966495529229139</v>
       </c>
       <c r="B116" s="2">
         <v>262</v>
@@ -4668,7 +4668,7 @@
     <row r="117" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30456300248444246</v>
+        <v>0.79073025578080736</v>
       </c>
       <c r="B117" s="2">
         <v>270</v>
@@ -4695,7 +4695,7 @@
     <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60466876455265106</v>
+        <v>0.32068979632289296</v>
       </c>
       <c r="B118" s="2">
         <v>224</v>
@@ -4722,7 +4722,7 @@
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53421671075573907</v>
+        <v>0.95148187793549877</v>
       </c>
       <c r="B119" s="2">
         <v>223</v>
@@ -4746,7 +4746,7 @@
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8321350622793626E-2</v>
+        <v>0.45472072381677398</v>
       </c>
       <c r="B120" s="2">
         <v>34</v>
@@ -4770,7 +4770,7 @@
     <row r="121" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39379646282110237</v>
+        <v>0.62016670341725266</v>
       </c>
       <c r="B121" s="2">
         <v>281</v>
@@ -4791,7 +4791,7 @@
     <row r="122" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37891661489031747</v>
+        <v>0.43606566464063334</v>
       </c>
       <c r="B122" s="2">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4090061905054948</v>
+        <v>2.5567685608912094E-2</v>
       </c>
       <c r="B123" s="2">
         <v>125</v>
@@ -4842,7 +4842,7 @@
     <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24674516566872873</v>
+        <v>6.6065423686622937E-2</v>
       </c>
       <c r="B124" s="2">
         <v>302</v>
@@ -4866,7 +4866,7 @@
     <row r="125" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55226290773373643</v>
+        <v>0.14932091034582839</v>
       </c>
       <c r="B125" s="2">
         <v>187</v>
@@ -4893,7 +4893,7 @@
     <row r="126" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91006537544928712</v>
+        <v>0.39049843297129405</v>
       </c>
       <c r="B126" s="2">
         <v>135</v>
@@ -4917,7 +4917,7 @@
     <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3712703620705321</v>
+        <v>0.84744489870153306</v>
       </c>
       <c r="B127" s="2">
         <v>290</v>
@@ -4941,7 +4941,7 @@
     <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77533201266950136</v>
+        <v>0.87481714041138614</v>
       </c>
       <c r="B128" s="2">
         <v>291</v>
@@ -4965,7 +4965,7 @@
     <row r="129" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2342945327906818</v>
+        <v>0.31462680466158</v>
       </c>
       <c r="B129" s="2">
         <v>272</v>
@@ -4989,7 +4989,7 @@
     <row r="130" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.77984677055354412</v>
+        <v>0.71997732765880584</v>
       </c>
       <c r="B130" s="2">
         <v>239</v>
@@ -5013,7 +5013,7 @@
     <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48215871655070264</v>
+        <v>0.83097171951624738</v>
       </c>
       <c r="B131" s="2">
         <v>121</v>
@@ -5037,7 +5037,7 @@
     <row r="132" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17587454981492845</v>
+        <v>0.49471087463521635</v>
       </c>
       <c r="B132" s="2">
         <v>225</v>
@@ -5067,7 +5067,7 @@
     <row r="133" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40714788062533225</v>
+        <v>0.88402749786979273</v>
       </c>
       <c r="B133" s="2">
         <v>263</v>
@@ -5091,7 +5091,7 @@
     <row r="134" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82454750049494741</v>
+        <v>0.76159221585980053</v>
       </c>
       <c r="B134" s="2">
         <v>85</v>
@@ -5115,7 +5115,7 @@
     <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67256078121165408</v>
+        <v>0.20375896218829492</v>
       </c>
       <c r="B135" s="2">
         <v>104</v>
@@ -5142,7 +5142,7 @@
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34178762734557122</v>
+        <v>0.78615645180091831</v>
       </c>
       <c r="B136" s="2">
         <v>110</v>
@@ -5166,7 +5166,7 @@
     <row r="137" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88257997691005396</v>
+        <v>0.29333096268151593</v>
       </c>
       <c r="B137" s="2">
         <v>216</v>
@@ -5190,7 +5190,7 @@
     <row r="138" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41353315542693569</v>
+        <v>0.78434781612879634</v>
       </c>
       <c r="B138" s="2">
         <v>188</v>
@@ -5217,7 +5217,7 @@
     <row r="139" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94822809731726809</v>
+        <v>0.4728725570600375</v>
       </c>
       <c r="B139" s="2">
         <v>212</v>
@@ -5241,7 +5241,7 @@
     <row r="140" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3861298447044876E-2</v>
+        <v>0.72969542652828601</v>
       </c>
       <c r="B140" s="2">
         <v>84</v>
@@ -5265,7 +5265,7 @@
     <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8643028577408645E-2</v>
+        <v>0.59400851180778369</v>
       </c>
       <c r="B141" s="2">
         <v>79</v>
@@ -5289,7 +5289,7 @@
     <row r="142" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96154582638979014</v>
+        <v>5.4523988192986206E-2</v>
       </c>
       <c r="B142" s="2">
         <v>285</v>
@@ -5313,7 +5313,7 @@
     <row r="143" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27255454574303917</v>
+        <v>0.49435859187730691</v>
       </c>
       <c r="B143" s="2">
         <v>115</v>
@@ -5337,7 +5337,7 @@
     <row r="144" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43358861742405186</v>
+        <v>0.73519557019604198</v>
       </c>
       <c r="B144" s="2">
         <v>117</v>
@@ -5358,7 +5358,7 @@
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28186509604182608</v>
+        <v>0.69202993992416961</v>
       </c>
       <c r="B145" s="2">
         <v>266</v>
@@ -5382,7 +5382,7 @@
     <row r="146" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.227249988266359E-2</v>
+        <v>0.27989359796025648</v>
       </c>
       <c r="B146" s="2">
         <v>150</v>
@@ -5409,7 +5409,7 @@
     <row r="147" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36788429637249287</v>
+        <v>0.76486422621437089</v>
       </c>
       <c r="B147" s="2">
         <v>151</v>
@@ -5436,7 +5436,7 @@
     <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58670012214028078</v>
+        <v>0.22821724060054493</v>
       </c>
       <c r="B148" s="2">
         <v>296</v>
@@ -5457,7 +5457,7 @@
     <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59926481013738164</v>
+        <v>0.52353305467745725</v>
       </c>
       <c r="B149" s="2">
         <v>168</v>
@@ -5484,7 +5484,7 @@
     <row r="150" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44798332139687458</v>
+        <v>0.96713391493779199</v>
       </c>
       <c r="B150" s="2">
         <v>276</v>
@@ -5511,7 +5511,7 @@
     <row r="151" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92774366714709666</v>
+        <v>1.7827205601018914E-2</v>
       </c>
       <c r="B151" s="2">
         <v>44</v>
@@ -5535,7 +5535,7 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60001153905675142</v>
+        <v>0.52898219494338083</v>
       </c>
       <c r="B152" s="2">
         <v>122</v>
@@ -5562,7 +5562,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87843941821605254</v>
+        <v>0.45615470174030726</v>
       </c>
       <c r="B153" s="2">
         <v>300</v>
@@ -5583,7 +5583,7 @@
     <row r="154" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81854817236191268</v>
+        <v>0.4608765618332975</v>
       </c>
       <c r="B154" s="2">
         <v>7</v>
@@ -5610,7 +5610,7 @@
     <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6042566248015443</v>
+        <v>0.11313733209454946</v>
       </c>
       <c r="B155" s="2">
         <v>130</v>
@@ -5637,7 +5637,7 @@
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9295324800931932E-2</v>
+        <v>0.36967244999723903</v>
       </c>
       <c r="B156" s="2">
         <v>101</v>
@@ -5661,7 +5661,7 @@
     <row r="157" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21439935992352122</v>
+        <v>0.88280618233036912</v>
       </c>
       <c r="B157" s="2">
         <v>248</v>
@@ -5685,7 +5685,7 @@
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2732041188234584E-2</v>
+        <v>0.96870416421614414</v>
       </c>
       <c r="B158" s="2">
         <v>14</v>
@@ -5706,7 +5706,7 @@
     <row r="159" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98028055943631742</v>
+        <v>0.48539337128895488</v>
       </c>
       <c r="B159" s="2">
         <v>157</v>
@@ -5730,7 +5730,7 @@
     <row r="160" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26884256712552002</v>
+        <v>0.43947527865191161</v>
       </c>
       <c r="B160" s="2">
         <v>69</v>
@@ -5757,7 +5757,7 @@
     <row r="161" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30466115301316765</v>
+        <v>0.85672241618268008</v>
       </c>
       <c r="B161" s="2">
         <v>74</v>
@@ -5781,7 +5781,7 @@
     <row r="162" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86907145478800074</v>
+        <v>0.93358349427148557</v>
       </c>
       <c r="B162" s="2">
         <v>76</v>
@@ -5808,7 +5808,7 @@
     <row r="163" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.670612734040382E-2</v>
+        <v>0.35100170958274191</v>
       </c>
       <c r="B163" s="2">
         <v>283</v>
@@ -5832,7 +5832,7 @@
     <row r="164" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95098362441491557</v>
+        <v>0.48908351854319232</v>
       </c>
       <c r="B164" s="2">
         <v>99</v>
@@ -5853,7 +5853,7 @@
     <row r="165" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98914143501195451</v>
+        <v>0.31444104247077143</v>
       </c>
       <c r="B165" s="2">
         <v>278</v>
@@ -5874,7 +5874,7 @@
     <row r="166" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87484474091270681</v>
+        <v>0.43717615999388904</v>
       </c>
       <c r="B166" s="2">
         <v>280</v>
@@ -5898,7 +5898,7 @@
     <row r="167" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4269470290717354E-2</v>
+        <v>0.9868623710176696</v>
       </c>
       <c r="B167" s="2">
         <v>152</v>
@@ -5922,7 +5922,7 @@
     <row r="168" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74668446612691142</v>
+        <v>0.72118625281497606</v>
       </c>
       <c r="B168" s="2">
         <v>132</v>
@@ -5949,7 +5949,7 @@
     <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70846299037010063</v>
+        <v>0.68874453612993691</v>
       </c>
       <c r="B169" s="2">
         <v>111</v>
@@ -5973,7 +5973,7 @@
     <row r="170" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53891545234061433</v>
+        <v>0.32404534942557794</v>
       </c>
       <c r="B170" s="2">
         <v>52</v>
@@ -5994,7 +5994,7 @@
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19059214955686887</v>
+        <v>5.7954260821868497E-2</v>
       </c>
       <c r="B171" s="2">
         <v>68</v>
@@ -6018,7 +6018,7 @@
     <row r="172" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81560686537940086</v>
+        <v>0.67456821729523775</v>
       </c>
       <c r="B172" s="2">
         <v>184</v>
@@ -6042,7 +6042,7 @@
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53184878702510663</v>
+        <v>0.34122621233621941</v>
       </c>
       <c r="B173" s="2">
         <v>174</v>
@@ -6066,7 +6066,7 @@
     <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73457756514019645</v>
+        <v>0.46495364259591665</v>
       </c>
       <c r="B174" s="2">
         <v>25</v>
@@ -6087,7 +6087,7 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49211909451586444</v>
+        <v>0.92599760213702953</v>
       </c>
       <c r="B175" s="2">
         <v>145</v>
@@ -6114,7 +6114,7 @@
     <row r="176" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69583028816654524</v>
+        <v>0.80095483882377438</v>
       </c>
       <c r="B176" s="2">
         <v>255</v>
@@ -6138,7 +6138,7 @@
     <row r="177" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78467856635681532</v>
+        <v>1.2481172924337702E-2</v>
       </c>
       <c r="B177" s="2">
         <v>227</v>
@@ -6162,7 +6162,7 @@
     <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3806865086999679</v>
+        <v>0.79516113077383221</v>
       </c>
       <c r="B178" s="2">
         <v>301</v>
@@ -6186,7 +6186,7 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67984619337376162</v>
+        <v>2.7662235677090363E-2</v>
       </c>
       <c r="B179" s="2">
         <v>230</v>
@@ -6207,7 +6207,7 @@
     <row r="180" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95601958265737919</v>
+        <v>0.66289949226974376</v>
       </c>
       <c r="B180" s="2">
         <v>77</v>
@@ -6234,7 +6234,7 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49919052164811428</v>
+        <v>0.84330488741380405</v>
       </c>
       <c r="B181" s="2">
         <v>22</v>
@@ -6258,7 +6258,7 @@
     <row r="182" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96706176473345662</v>
+        <v>0.37920872912593562</v>
       </c>
       <c r="B182" s="2">
         <v>155</v>
@@ -6282,7 +6282,7 @@
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38654157615999518</v>
+        <v>0.64730295461404941</v>
       </c>
       <c r="B183" s="2">
         <v>170</v>
@@ -6306,7 +6306,7 @@
     <row r="184" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17719500210595063</v>
+        <v>0.8297339868325484</v>
       </c>
       <c r="B184" s="2">
         <v>181</v>
@@ -6333,7 +6333,7 @@
     <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29382723976041392</v>
+        <v>0.72358300151845123</v>
       </c>
       <c r="B185" s="2">
         <v>81</v>
@@ -6360,7 +6360,7 @@
     <row r="186" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5014998774111753</v>
+        <v>0.77822510014495883</v>
       </c>
       <c r="B186" s="2">
         <v>162</v>
@@ -6384,7 +6384,7 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16266015486371244</v>
+        <v>0.26461884182132966</v>
       </c>
       <c r="B187" s="2">
         <v>231</v>
@@ -6408,7 +6408,7 @@
     <row r="188" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39629011297923455</v>
+        <v>6.861855485721946E-2</v>
       </c>
       <c r="B188" s="2">
         <v>27</v>
@@ -6429,7 +6429,7 @@
     <row r="189" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91280145870335427</v>
+        <v>0.60422835241438966</v>
       </c>
       <c r="B189" s="2">
         <v>24</v>
@@ -6453,7 +6453,7 @@
     <row r="190" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92874786671678478</v>
+        <v>0.40912917953715866</v>
       </c>
       <c r="B190" s="2">
         <v>208</v>
@@ -6474,7 +6474,7 @@
     <row r="191" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67110595514981075</v>
+        <v>0.80216320960034582</v>
       </c>
       <c r="B191" s="2">
         <v>199</v>
@@ -6495,7 +6495,7 @@
     <row r="192" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62629057907321828</v>
+        <v>0.10429634137458965</v>
       </c>
       <c r="B192" s="2">
         <v>256</v>
@@ -6516,7 +6516,7 @@
     <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37033673986360915</v>
+        <v>0.29994437044077615</v>
       </c>
       <c r="B193" s="2">
         <v>17</v>
@@ -6543,7 +6543,7 @@
     <row r="194" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.99934696058816674</v>
+        <v>0.27196592860720226</v>
       </c>
       <c r="B194" s="2">
         <v>46</v>
@@ -6567,7 +6567,7 @@
     <row r="195" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4997123011045757E-3</v>
+        <v>0.54881756342236032</v>
       </c>
       <c r="B195" s="2">
         <v>53</v>
@@ -6588,7 +6588,7 @@
     <row r="196" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88098576677586138</v>
+        <v>0.86529409965938309</v>
       </c>
       <c r="B196" s="2">
         <v>57</v>
@@ -6612,7 +6612,7 @@
     <row r="197" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19126380209133509</v>
+        <v>0.28980877049885545</v>
       </c>
       <c r="B197" s="2">
         <v>31</v>
@@ -6636,7 +6636,7 @@
     <row r="198" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62715922398747537</v>
+        <v>0.36974103765644728</v>
       </c>
       <c r="B198" s="2">
         <v>47</v>
@@ -6657,7 +6657,7 @@
     <row r="199" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34410384622453449</v>
+        <v>0.32908158270699694</v>
       </c>
       <c r="B199" s="2">
         <v>197</v>
@@ -6678,7 +6678,7 @@
     <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0977023864938844E-2</v>
+        <v>0.99747726399503489</v>
       </c>
       <c r="B200" s="2">
         <v>93</v>
@@ -6699,7 +6699,7 @@
     <row r="201" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87561347436979575</v>
+        <v>0.89878386272925681</v>
       </c>
       <c r="B201" s="2">
         <v>226</v>
@@ -6726,7 +6726,7 @@
     <row r="202" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81790082809067366</v>
+        <v>0.27479241306634405</v>
       </c>
       <c r="B202" s="2">
         <v>120</v>
@@ -6750,7 +6750,7 @@
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97402622427558549</v>
+        <v>0.43062498708820696</v>
       </c>
       <c r="B203" s="2">
         <v>299</v>
@@ -6774,7 +6774,7 @@
     <row r="204" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39329277651691941</v>
+        <v>0.89950662945696858</v>
       </c>
       <c r="B204" s="2">
         <v>30</v>
@@ -6801,7 +6801,7 @@
     <row r="205" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43095887567797031</v>
+        <v>0.93862844404404999</v>
       </c>
       <c r="B205" s="2">
         <v>166</v>
@@ -6825,7 +6825,7 @@
     <row r="206" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48579052437057957</v>
+        <v>0.89407841083934192</v>
       </c>
       <c r="B206" s="2">
         <v>138</v>
@@ -6852,7 +6852,7 @@
     <row r="207" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87336169599191782</v>
+        <v>0.19335227015584955</v>
       </c>
       <c r="B207" s="2">
         <v>12</v>
@@ -6879,7 +6879,7 @@
     <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87808213879952923</v>
+        <v>0.19507231074869669</v>
       </c>
       <c r="B208" s="2">
         <v>149</v>
@@ -6903,7 +6903,7 @@
     <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19026873465788274</v>
+        <v>0.7358021170677943</v>
       </c>
       <c r="B209" s="2">
         <v>107</v>
@@ -6927,7 +6927,7 @@
     <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0372557676700098E-2</v>
+        <v>0.88410387996689754</v>
       </c>
       <c r="B210" s="2">
         <v>297</v>
@@ -6951,7 +6951,7 @@
     <row r="211" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3891018611751624E-2</v>
+        <v>0.69908962303143152</v>
       </c>
       <c r="B211" s="2">
         <v>179</v>
@@ -6975,7 +6975,7 @@
     <row r="212" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49986435586051736</v>
+        <v>0.77441597001209306</v>
       </c>
       <c r="B212" s="2">
         <v>63</v>
@@ -7005,7 +7005,7 @@
     <row r="213" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50128864766703007</v>
+        <v>0.78623107408961979</v>
       </c>
       <c r="B213" s="2">
         <v>86</v>
@@ -7029,7 +7029,7 @@
     <row r="214" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31953711954068509</v>
+        <v>0.76342811289882417</v>
       </c>
       <c r="B214" s="2">
         <v>133</v>
@@ -7056,7 +7056,7 @@
     <row r="215" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55182339006669345</v>
+        <v>6.6414078235904617E-3</v>
       </c>
       <c r="B215" s="2">
         <v>127</v>
@@ -7083,7 +7083,7 @@
     <row r="216" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8953591152513809</v>
+        <v>0.81749184270370023</v>
       </c>
       <c r="B216" s="2">
         <v>60</v>
@@ -7107,7 +7107,7 @@
     <row r="217" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18589657730533637</v>
+        <v>0.46038023881901369</v>
       </c>
       <c r="B217" s="2">
         <v>82</v>
@@ -7134,7 +7134,7 @@
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43280992083915559</v>
+        <v>0.92327830393866872</v>
       </c>
       <c r="B218" s="2">
         <v>177</v>
@@ -7158,7 +7158,7 @@
     <row r="219" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30928768509104076</v>
+        <v>0.75683007517099954</v>
       </c>
       <c r="B219" s="2">
         <v>273</v>
@@ -7182,7 +7182,7 @@
     <row r="220" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14205560642148185</v>
+        <v>0.72410738673857711</v>
       </c>
       <c r="B220" s="2">
         <v>268</v>
@@ -7209,7 +7209,7 @@
     <row r="221" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22040915085581514</v>
+        <v>0.89205695599981782</v>
       </c>
       <c r="B221" s="2">
         <v>195</v>
@@ -7230,7 +7230,7 @@
     <row r="222" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99352881787744363</v>
+        <v>0.61652197461377301</v>
       </c>
       <c r="B222" s="2">
         <v>194</v>
@@ -7251,7 +7251,7 @@
     <row r="223" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90228616057218602</v>
+        <v>5.9106267881127939E-2</v>
       </c>
       <c r="B223" s="2">
         <v>253</v>
@@ -7275,7 +7275,7 @@
     <row r="224" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82918421071707316</v>
+        <v>0.28560847715210103</v>
       </c>
       <c r="B224" s="2">
         <v>191</v>
@@ -7299,7 +7299,7 @@
     <row r="225" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5126084866345153</v>
+        <v>0.92984796418384819</v>
       </c>
       <c r="B225" s="2">
         <v>18</v>
@@ -7323,7 +7323,7 @@
     <row r="226" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52866249052099368</v>
+        <v>0.90041338348890343</v>
       </c>
       <c r="B226" s="2">
         <v>204</v>
@@ -7344,7 +7344,7 @@
     <row r="227" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1555009175033506</v>
+        <v>0.45434257553454305</v>
       </c>
       <c r="B227" s="2">
         <v>153</v>
@@ -7368,7 +7368,7 @@
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58212606713383286</v>
+        <v>0.36218922756101457</v>
       </c>
       <c r="B228" s="2">
         <v>235</v>
@@ -7395,7 +7395,7 @@
     <row r="229" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6888497791952459E-2</v>
+        <v>0.46253796080910115</v>
       </c>
       <c r="B229" s="2">
         <v>219</v>
@@ -7419,7 +7419,7 @@
     <row r="230" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.304186316440465E-2</v>
+        <v>0.63308563903598991</v>
       </c>
       <c r="B230" s="2">
         <v>40</v>
@@ -7443,7 +7443,7 @@
     <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82395362184398746</v>
+        <v>0.26546263532142522</v>
       </c>
       <c r="B231" s="2">
         <v>89</v>
@@ -7467,7 +7467,7 @@
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43792419491248957</v>
+        <v>0.22015913157728961</v>
       </c>
       <c r="B232" s="2">
         <v>90</v>
@@ -7488,7 +7488,7 @@
     <row r="233" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20891038987580746</v>
+        <v>0.76131880495708093</v>
       </c>
       <c r="B233" s="2">
         <v>189</v>
@@ -7509,7 +7509,7 @@
     <row r="234" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90439174658046173</v>
+        <v>0.88157427072244698</v>
       </c>
       <c r="B234" s="2">
         <v>245</v>
@@ -7530,7 +7530,7 @@
     <row r="235" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6122634289213704E-2</v>
+        <v>0.9826003359029718</v>
       </c>
       <c r="B235" s="2">
         <v>269</v>
@@ -7554,7 +7554,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65122060961424177</v>
+        <v>4.6229094500413903E-2</v>
       </c>
       <c r="B236" s="2">
         <v>289</v>
@@ -7575,7 +7575,7 @@
     <row r="237" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51262134433768503</v>
+        <v>0.22941621550337821</v>
       </c>
       <c r="B237" s="2">
         <v>261</v>
@@ -7599,7 +7599,7 @@
     <row r="238" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11706874162620395</v>
+        <v>0.97669823844864656</v>
       </c>
       <c r="B238" s="2">
         <v>37</v>
@@ -7626,7 +7626,7 @@
     <row r="239" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84286597697996291</v>
+        <v>0.55328674664948618</v>
       </c>
       <c r="B239" s="2">
         <v>202</v>
@@ -7647,7 +7647,7 @@
     <row r="240" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76791022918552665</v>
+        <v>0.80313104454898521</v>
       </c>
       <c r="B240" s="2">
         <v>32</v>
@@ -7671,7 +7671,7 @@
     <row r="241" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47093743628133</v>
+        <v>0.22393085473486507</v>
       </c>
       <c r="B241" s="2">
         <v>275</v>
@@ -7692,7 +7692,7 @@
     <row r="242" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3964940799346145</v>
+        <v>0.36334632686037627</v>
       </c>
       <c r="B242" s="2">
         <v>175</v>
@@ -7719,7 +7719,7 @@
     <row r="243" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6868495811076214</v>
+        <v>0.10120688988003312</v>
       </c>
       <c r="B243" s="2">
         <v>165</v>
@@ -7746,7 +7746,7 @@
     <row r="244" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2493152473175122</v>
+        <v>0.16767364352665803</v>
       </c>
       <c r="B244" s="2">
         <v>257</v>
@@ -7770,7 +7770,7 @@
     <row r="245" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7123681623206678</v>
+        <v>0.50218155215252769</v>
       </c>
       <c r="B245" s="2">
         <v>244</v>
@@ -7791,7 +7791,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6041525589034541</v>
+        <v>0.70457553755246805</v>
       </c>
       <c r="B246" s="2">
         <v>143</v>
@@ -7815,7 +7815,7 @@
     <row r="247" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78274095991628978</v>
+        <v>0.68297696835518396</v>
       </c>
       <c r="B247" s="2">
         <v>119</v>
@@ -7842,7 +7842,7 @@
     <row r="248" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9704279758051739E-2</v>
+        <v>0.54880299619949813</v>
       </c>
       <c r="B248" s="2">
         <v>163</v>
@@ -7866,7 +7866,7 @@
     <row r="249" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50107397572546353</v>
+        <v>0.58902253617405687</v>
       </c>
       <c r="B249" s="2">
         <v>210</v>
@@ -7887,7 +7887,7 @@
     <row r="250" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45417221773020267</v>
+        <v>0.13499376360715942</v>
       </c>
       <c r="B250" s="2">
         <v>286</v>
@@ -7914,7 +7914,7 @@
     <row r="251" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98904858007002305</v>
+        <v>0.7672655698837737</v>
       </c>
       <c r="B251" s="2">
         <v>72</v>
@@ -7935,7 +7935,7 @@
     <row r="252" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54709928745635683</v>
+        <v>0.635505616497135</v>
       </c>
       <c r="B252" s="2">
         <v>11</v>
@@ -7959,7 +7959,7 @@
     <row r="253" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2572670351867608E-2</v>
+        <v>0.80335442659253786</v>
       </c>
       <c r="B253" s="2">
         <v>238</v>
@@ -7980,7 +7980,7 @@
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5800333401421911</v>
+        <v>0.90436617338039604</v>
       </c>
       <c r="B254" s="2">
         <v>95</v>
@@ -8004,7 +8004,7 @@
     <row r="255" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54440492185572609</v>
+        <v>0.75053832572866686</v>
       </c>
       <c r="B255" s="2">
         <v>159</v>
@@ -8028,7 +8028,7 @@
     <row r="256" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94750962223561697</v>
+        <v>0.84213326737174277</v>
       </c>
       <c r="B256" s="2">
         <v>15</v>
@@ -8052,7 +8052,7 @@
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62032458157249293</v>
+        <v>0.90734748473598559</v>
       </c>
       <c r="B257" s="2">
         <v>146</v>
@@ -8073,7 +8073,7 @@
     <row r="258" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A303" ca="1" si="4">RAND()</f>
-        <v>0.51543401543808209</v>
+        <v>3.5910382127865459E-2</v>
       </c>
       <c r="B258" s="2">
         <v>211</v>
@@ -8097,7 +8097,7 @@
     <row r="259" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35675080251390734</v>
+        <v>0.13219842087858591</v>
       </c>
       <c r="B259" s="2">
         <v>98</v>
@@ -8124,7 +8124,7 @@
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94218414709632003</v>
+        <v>0.83741623231902118</v>
       </c>
       <c r="B260" s="2">
         <v>66</v>
@@ -8148,7 +8148,7 @@
     <row r="261" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80528751872252702</v>
+        <v>0.23573970525169019</v>
       </c>
       <c r="B261" s="2">
         <v>252</v>
@@ -8175,7 +8175,7 @@
     <row r="262" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27406902226040919</v>
+        <v>0.29635084884297302</v>
       </c>
       <c r="B262" s="2">
         <v>246</v>
@@ -8199,7 +8199,7 @@
     <row r="263" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31504501267066198</v>
+        <v>6.9430580704565426E-2</v>
       </c>
       <c r="B263" s="2">
         <v>9</v>
@@ -8223,7 +8223,7 @@
     <row r="264" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98319079530640563</v>
+        <v>0.12220732234879517</v>
       </c>
       <c r="B264" s="2">
         <v>271</v>
@@ -8250,7 +8250,7 @@
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26695123510774577</v>
+        <v>0.30138493131532829</v>
       </c>
       <c r="B265" s="2">
         <v>105</v>
@@ -8277,7 +8277,7 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30432761315909862</v>
+        <v>0.72325563682975247</v>
       </c>
       <c r="B266" s="2">
         <v>124</v>
@@ -8304,7 +8304,7 @@
     <row r="267" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9949129097506707</v>
+        <v>0.96156808443174202</v>
       </c>
       <c r="B267" s="2">
         <v>42</v>
@@ -8328,7 +8328,7 @@
     <row r="268" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92284369005955491</v>
+        <v>0.64952890894884119</v>
       </c>
       <c r="B268" s="2">
         <v>260</v>
@@ -8352,7 +8352,7 @@
     <row r="269" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77535041894660472</v>
+        <v>0.75923864189661694</v>
       </c>
       <c r="B269" s="2">
         <v>180</v>
@@ -8379,7 +8379,7 @@
     <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88194790288173441</v>
+        <v>0.51680977101948666</v>
       </c>
       <c r="B270" s="2">
         <v>279</v>
@@ -8406,7 +8406,7 @@
     <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5355863503268266E-2</v>
+        <v>9.9913525783332235E-2</v>
       </c>
       <c r="B271" s="2">
         <v>293</v>
@@ -8427,7 +8427,7 @@
     <row r="272" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17951149360431295</v>
+        <v>0.38922807793909553</v>
       </c>
       <c r="B272" s="2">
         <v>54</v>
@@ -8454,7 +8454,7 @@
     <row r="273" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15192280392408597</v>
+        <v>0.77144784784399112</v>
       </c>
       <c r="B273" s="2">
         <v>192</v>
@@ -8478,7 +8478,7 @@
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30402664379614441</v>
+        <v>0.79401244671087279</v>
       </c>
       <c r="B274" s="2">
         <v>129</v>
@@ -8502,7 +8502,7 @@
     <row r="275" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8198835045086259</v>
+        <v>0.59915906428847343</v>
       </c>
       <c r="B275" s="2">
         <v>217</v>
@@ -8526,7 +8526,7 @@
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65350803053210382</v>
+        <v>0.22491747914444593</v>
       </c>
       <c r="B276" s="2">
         <v>35</v>
@@ -8547,7 +8547,7 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43690841243897227</v>
+        <v>0.35617303068985273</v>
       </c>
       <c r="B277" s="2">
         <v>20</v>
@@ -8568,7 +8568,7 @@
     <row r="278" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93761641118252093</v>
+        <v>0.73273450429516507</v>
       </c>
       <c r="B278" s="2">
         <v>249</v>
@@ -8595,7 +8595,7 @@
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76157211723419982</v>
+        <v>0.84453610803597157</v>
       </c>
       <c r="B279" s="2">
         <v>67</v>
@@ -8622,7 +8622,7 @@
     <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15885549243374042</v>
+        <v>0.36829486989469074</v>
       </c>
       <c r="B280" s="2">
         <v>92</v>
@@ -8649,7 +8649,7 @@
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1564322973732567</v>
+        <v>0.19500092787098899</v>
       </c>
       <c r="B281" s="2">
         <v>100</v>
@@ -8676,7 +8676,7 @@
     <row r="282" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84185201991194347</v>
+        <v>2.6340899829339959E-2</v>
       </c>
       <c r="B282" s="2">
         <v>136</v>
@@ -8703,7 +8703,7 @@
     <row r="283" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23565648835864983</v>
+        <v>0.91974855981932158</v>
       </c>
       <c r="B283" s="2">
         <v>234</v>
@@ -8730,7 +8730,7 @@
     <row r="284" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1597541781329435E-2</v>
+        <v>0.86913829463146597</v>
       </c>
       <c r="B284" s="2">
         <v>45</v>
@@ -8751,7 +8751,7 @@
     <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87213568308336398</v>
+        <v>0.34575801267071138</v>
       </c>
       <c r="B285" s="2">
         <v>116</v>
@@ -8775,7 +8775,7 @@
     <row r="286" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39905975392236481</v>
+        <v>0.13160124529159212</v>
       </c>
       <c r="B286" s="2">
         <v>259</v>
@@ -8802,7 +8802,7 @@
     <row r="287" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36838099139642999</v>
+        <v>0.53674995345451881</v>
       </c>
       <c r="B287" s="2">
         <v>258</v>
@@ -8829,7 +8829,7 @@
     <row r="288" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9414542517407556E-3</v>
+        <v>0.78901537423588985</v>
       </c>
       <c r="B288" s="2">
         <v>126</v>
@@ -8856,7 +8856,7 @@
     <row r="289" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45952961999149577</v>
+        <v>0.45950155595544007</v>
       </c>
       <c r="B289" s="2">
         <v>16</v>
@@ -8883,7 +8883,7 @@
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5454943267180283E-2</v>
+        <v>0.16033988554657341</v>
       </c>
       <c r="B290" s="2">
         <v>190</v>
@@ -8904,7 +8904,7 @@
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7524545113931347E-2</v>
+        <v>0.53947861086357762</v>
       </c>
       <c r="B291" s="2">
         <v>294</v>
@@ -8928,7 +8928,7 @@
     <row r="292" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53865740819213248</v>
+        <v>9.199506551994785E-2</v>
       </c>
       <c r="B292" s="2">
         <v>209</v>
@@ -8949,7 +8949,7 @@
     <row r="293" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3630818719592819E-2</v>
+        <v>0.77351839297965308</v>
       </c>
       <c r="B293" s="2">
         <v>158</v>
@@ -8976,7 +8976,7 @@
     <row r="294" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80349736118607229</v>
+        <v>0.89278319536424744</v>
       </c>
       <c r="B294" s="2">
         <v>13</v>
@@ -9000,7 +9000,7 @@
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71097144636512033</v>
+        <v>0.68148884619204153</v>
       </c>
       <c r="B295" s="2">
         <v>237</v>
@@ -9021,7 +9021,7 @@
     <row r="296" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6665388943705145</v>
+        <v>0.49357894618946707</v>
       </c>
       <c r="B296" s="2">
         <v>8</v>
@@ -9045,7 +9045,7 @@
     <row r="297" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27754830221941063</v>
+        <v>0.43969206989580789</v>
       </c>
       <c r="B297" s="2">
         <v>254</v>
@@ -9066,7 +9066,7 @@
     <row r="298" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64229636397977774</v>
+        <v>0.28406407416221346</v>
       </c>
       <c r="B298" s="2">
         <v>5</v>
@@ -9090,7 +9090,7 @@
     <row r="299" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82926823546575512</v>
+        <v>0.14874126047627068</v>
       </c>
       <c r="B299" s="2">
         <v>62</v>
@@ -9114,7 +9114,7 @@
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92221761235574728</v>
+        <v>0.48447399429181226</v>
       </c>
       <c r="B300" s="2">
         <v>147</v>
@@ -9138,7 +9138,7 @@
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8514002961782117E-2</v>
+        <v>0.91899083537133686</v>
       </c>
       <c r="B301" s="2">
         <v>171</v>
@@ -9165,7 +9165,7 @@
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72543862061663067</v>
+        <v>0.52411967548220106</v>
       </c>
       <c r="B302" s="2">
         <v>178</v>
@@ -9186,7 +9186,7 @@
     <row r="303" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67414397375231627</v>
+        <v>0.48957978454528683</v>
       </c>
       <c r="B303" s="2">
         <v>205</v>
@@ -9335,7 +9335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+    <sheetView topLeftCell="A297" workbookViewId="0">
       <selection activeCell="A304" sqref="A304:XFD312"/>
     </sheetView>
   </sheetViews>
